--- a/medicine/Enfance/Mickey_Spillane/Mickey_Spillane.xlsx
+++ b/medicine/Enfance/Mickey_Spillane/Mickey_Spillane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mickey Spillane, de son vrai nom Frank Morrison Spillane, né le 9 mars 1918 à Brooklyn (New York, État de New York) et mort le 17 juillet 2006 à Charleston (Caroline du Sud) est un écrivain américain, occasionnellement acteur. 
 Auteur prolifique de romans policiers, Mickey Spillane est surtout connu pour avoir créé le personnage de Mike Hammer, décliné dans divers romans, films, ainsi que dans une série télévisée du même nom.
@@ -514,12 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Frank Morrison Spillane naît d'un père irlandais dans le quartier de Brooklyn à New York, mais passe son enfance dans un quartier difficile de la ville d'Elizabeth dans le New Jersey. Il abandonne ses études en 1935.
-Carrière
-Mickey Spillane commence sa carrière d'écrivain comme rédacteur pour des magazines de mode. Il rédige ensuite des scénarios pour des comics de la firme Marvel Comics, notamment la série du super-héros Captain America. Fort de quelques succès, il se décide à rédiger également des nouvelles pour des pulps. Il est payé 12 dollars par bloc et produit jusqu'à 50 blocs par jour. 
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Morrison Spillane naît d'un père irlandais dans le quartier de Brooklyn à New York, mais passe son enfance dans un quartier difficile de la ville d'Elizabeth dans le New Jersey. Il abandonne ses études en 1935.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mickey Spillane commence sa carrière d'écrivain comme rédacteur pour des magazines de mode. Il rédige ensuite des scénarios pour des comics de la firme Marvel Comics, notamment la série du super-héros Captain America. Fort de quelques succès, il se décide à rédiger également des nouvelles pour des pulps. Il est payé 12 dollars par bloc et produit jusqu'à 50 blocs par jour. 
 Pendant la Seconde Guerre mondiale, il est pilote dans l'US Air Force, puis devient instructeur de vol et entraîne les pilotes de chasse. Il transporte également des soldats pour le compte de l'Air Force. Après la guerre, il recommence à rédiger des comics et fait aussi des numéros de cirque sur trampoline pour le compte du Ringling Brothers and Barnum and Bailey Circus. Il participe également à une enquête sur des trafiquants de drogue, ce qui lui vaut une blessure par balle et un coup de couteau. 
-Son premier roman policier s'intitule I, the Jury (1946), traduit en français sous le titre J'aurai ta peau[1]. Il écrit ce livre dans une tente, alors qu'il construit sa première maison. Le roman introduit un dur à cuire, le détective Mike Hammer. Le nom de ce héros n'a pas été choisi au hasard : « Violent et brutal, le personnage cogne comme un marteau (hammer) et tue sans états d'âme. Adepte de la justice expéditive et primitive, il porte des jugements insultants sur les minorités, les intellectuels et les homosexuels. Dans les rapports avec les femmes, il est dominateur, dépourvu de délicatesse, parfois presque violeur »[2].
+Son premier roman policier s'intitule I, the Jury (1946), traduit en français sous le titre J'aurai ta peau. Il écrit ce livre dans une tente, alors qu'il construit sa première maison. Le roman introduit un dur à cuire, le détective Mike Hammer. Le nom de ce héros n'a pas été choisi au hasard : « Violent et brutal, le personnage cogne comme un marteau (hammer) et tue sans états d'âme. Adepte de la justice expéditive et primitive, il porte des jugements insultants sur les minorités, les intellectuels et les homosexuels. Dans les rapports avec les femmes, il est dominateur, dépourvu de délicatesse, parfois presque violeur ».
 Plusieurs des romans de la série Mike Hammer sont adaptés pour le cinéma, dont Kiss Me Deadly (1955) ou The Girl Hunters (1963 ; dans celui-ci, Spillane joue le rôle de Mike Hammer). De plus, pendant les années 1980, la série télévisée Mike Hammer est diffusée aux États-Unis ainsi qu'en Europe.
 En 1972, Spillane publie The Erection Set, un livre où sa seconde femme, le mannequin Sherri Malinou pose nue pour la page de couverture. Ce livre lui est dédié.
 Il a aussi fait des apparitions dans une série de publicités vantant les mérites d'une bière, la Miller Lite (en), qui met en scène un homme dur. Il joue aussi son propre rôle en 1954 dans le film Les Géants du cirque de James Edward Grant. Il a par ailleurs été occasionnellement acteur, notamment dans un épisode de la série télévisée policière Columbo (épisode « Édition tragique ») où il joue le rôle d'un écrivain assassiné.
@@ -529,35 +581,43 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mickey_Spillane</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Série Mike Hammer
-I, the Jury (1947) Publié en français sous le titre J'aurai ta peau, Paris, Presses de la Cité, 1948 ; réédition Paris, le Livre de poche Policier no 3851, 1974 ; réédition Paris, Union générale d'édition, 10/18, coll. Grands détectives no 1706, 1985 ; réédition dans le volume omnibus Mon nom est Mike Hammer..., Paris, Presses de la Cité, coll. Omnibus, 1989 ; réédition, Paris, Librairie des Champs-Élysées, Pulp Serie no 4, 1998 ; Paris, Omnibus, coll.  Bibliomnibus, 2014 Publié en français dans une autre traduction sous le titre Moi, le Jury, Paris, Edmond Nalis, 1969
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Mike Hammer</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>I, the Jury (1947) Publié en français sous le titre J'aurai ta peau, Paris, Presses de la Cité, 1948 ; réédition Paris, le Livre de poche Policier no 3851, 1974 ; réédition Paris, Union générale d'édition, 10/18, coll. Grands détectives no 1706, 1985 ; réédition dans le volume omnibus Mon nom est Mike Hammer..., Paris, Presses de la Cité, coll. Omnibus, 1989 ; réédition, Paris, Librairie des Champs-Élysées, Pulp Serie no 4, 1998 ; Paris, Omnibus, coll.  Bibliomnibus, 2014 Publié en français dans une autre traduction sous le titre Moi, le Jury, Paris, Edmond Nalis, 1969
 My Gun is Quick (1950) Publié en français sous le titre Pas de temps à perdre, Paris, Presses de la Cité, Un mystère no 37, 1950 ; réédition Paris, Livre de poche no 3853, 1974 ; réédition dans Mon nom est Mike Hammer..., Paris, Presses de la Cité, coll. Omnibus, 1989
 Vengeance Is Mine! (1950) Publié en français sous le titre Fallait pas commencer, Paris, Presses de la Cité, Un mystère no 54, 1951 ; réédition Paris, Livre de poche no 3854, 1974 ; réédition Paris, Union générale d'édition, coll. Grands détectives, 1984 ; réédition dans le volume omnibus Mon nom est Mike Hammer..., Paris, Presses de la Cité, coll. Omnibus, 1989
 One Lonely Night (1951) Publié en français sous le titre Charmante soirée, Paris, Presses de la Cité, Un mystère no 75, 1952 ; réédition Paris, Livre de poche no 3856, 1975 Publié dans une autre traduction sous le titre Une sacrée nuit !, Paris, Edmond Nalis, 1969
@@ -570,14 +630,90 @@
 Survival... Zero! (1970) Publié en français sous le titre Zéro de survie, Paris, Gallimard, coll. Série noire no 1409, 1971
 The Killing Man (1989) Publié en français sous le titre L'Homme qui tue, Paris, Grasset, 1990 ; réédition Paris, le Livre de poche no 7579, 1992
 Black Alley (1996)
-I'll Die Tomorrow (2009)
-Série Tiger Mann
-Day of the Guns (1964) Publié en français sous le titre Corrida à l'ONU, Paris, Presses de la Cité, Un mystère no 747, 1965 ; réédition Genève, Édito-service, 1973 ; réédition Paris, Livre de poche no 4925, 1978
+I'll Die Tomorrow (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Tiger Mann</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Day of the Guns (1964) Publié en français sous le titre Corrida à l'ONU, Paris, Presses de la Cité, Un mystère no 747, 1965 ; réédition Genève, Édito-service, 1973 ; réédition Paris, Livre de poche no 4925, 1978
 Bloody Sunrise (1965) Publié en français sous le titre Surprise sanglante, Paris, Presses de la Cité, Un mystère no 757, 1965 ; réédition Paris, Presses pocket no 1027, 1973 ; réédition Paris, Librairie des Champs-Élysées, Pulp Serie no 10, 1998
 The Death Dealers (1966) Publié en français sous le titre Un tigre dans votre manche, Paris, Presses de la Cité, Un mystère (2e série) no 13, 1966 ; réédition Paris, le Livre de poche Policier no 4937, 1974
-The By-Pass Control (1966) Publié en français sous le titre Court-circuit, Paris, Presses de la Cité, Un mystère (2e série) no 27, 1967 ; réédition Paris, Presses pocket no 962, 1973
-Autres romans
-The Long Wait (1951) Publié en français sous le titre Nettoyage par le vide, Paris, Presses de la Cité, Un mystère no 27, 1952 ; réédition Paris, Livre de poche no 3858, 1974 ; réédition Paris, Union générale d'éditions, 1984 ; réédition dans Mon nom est Mike Hammer..., Paris, Presses de la Cité, Collection Omnibus, 1989 ; réédition Paris, Librairie des Champs-Élysées, Pulp Serie no 7, 1998
+The By-Pass Control (1966) Publié en français sous le titre Court-circuit, Paris, Presses de la Cité, Un mystère (2e série) no 27, 1967 ; réédition Paris, Presses pocket no 962, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Long Wait (1951) Publié en français sous le titre Nettoyage par le vide, Paris, Presses de la Cité, Un mystère no 27, 1952 ; réédition Paris, Livre de poche no 3858, 1974 ; réédition Paris, Union générale d'éditions, 1984 ; réédition dans Mon nom est Mike Hammer..., Paris, Presses de la Cité, Collection Omnibus, 1989 ; réédition Paris, Librairie des Champs-Élysées, Pulp Serie no 7, 1998
 Everybody's Watching Me (1953) - court roman Publié en français sous le titre Tous braqués sur moi, dans Suspense recits noirs no 3, 1956
 The Deep (1961) Publié en français sous le titre Le Nouveau Caïd, Paris, Presses de la Cité, Un mystère no 588, traduction de Paul Mac-Ayre, 1961 ; réédition Paris, Livre de poche no 4750, 1976 ; réédition sous le titre M'appelle pas Fillette, Le Cherche Midi, Borderline 9782749173078, 2022
 I Came to Kill You (1964) - court roman Publié en français sous le titre Je suis venu te tuer, Villeurbanne, J.-L. Lesfargues, 1983
@@ -585,45 +721,115 @@
 The Delta Factor (1967) Publié en français sous le titre Un mariage hors-série, Paris, Librairie des Champs-Élysées, coll. Le Masque no 1209, 1972
 The Erection Set (1972) Publié en français sous le titre Le Dogue, Paris, Fayard, 1972 ; réédition  Paris, France loisirs, 1973 ; réédition Paris, Livre de poche no 3852, 1974
 The Last Cop Out (1973) Publié en français sous le titre In the baba Paris, Fayard, 1974 ; réédition Paris, Livre de poche no 4705, 1976 ; réédition dans Mon nom est Mike Hammer..., Paris, Presses de la Cité, Collection Omnibus, 1989
-Something's Down There (2003) Publié en français sous le titre Dans les profondeurs, Paris, Grasset, 2004
-Recueils de nouvelles
-Me Hood ! (1963) Certaines nouvelles publiées en français sous le titre Dites-le avec des tueurs, Paris, Presses de la Cité, Un mystère no 561, 1961
+Something's Down There (2003) Publié en français sous le titre Dans les profondeurs, Paris, Grasset, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Me Hood ! (1963) Certaines nouvelles publiées en français sous le titre Dites-le avec des tueurs, Paris, Presses de la Cité, Un mystère no 561, 1961
 The Flier (1964)
 Return of the Hood (1964) Publié en français sous le titre L'Irlandais haut le pied, Paris, Presses de la Cité, Un mystère (2e série) no 5, 1966 ; réédition Paris, Livre de poche no 4945, 1977
 Killer Mine (1965) Publié en français sous le titre Le Cri du Sioux, Paris, Presses de la Cité, Un mystère (2e série) no 161966 ; réédition sous le titre Une gueule de tueur, Paris, Presses pocket no 1055, 1974
 The Tough Guys (1969)
-Tomorrow I Die (1984)
-Ouvrages de littérature d'enfance et de jeunesse
-The Day The Sea Rolled Back (1979) Publié en français sous le titre Le jour où la mer disparut, Paris, Hachette, Bibliothèque verte, 1980
+Tomorrow I Die (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Day The Sea Rolled Back (1979) Publié en français sous le titre Le jour où la mer disparut, Paris, Hachette, Bibliothèque verte, 1980
 The Ship That Never Was (1982) Publié en français sous le titre La Grotte du vaisseau oublié, Paris, Le Livre de poche. Club no 8125, 1987</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mickey_Spillane</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1954 : Les Géants du cirque (Ring of fear) de James Edward Grant : lui-même, en tant qu'enquêteur dans un cirque
 1955 : En quatrième vitesse (Kiss Me Deadly) de Robert Aldrich, d'après le roman du même nom.
@@ -634,31 +840,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mickey_Spillane</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mickey_Spillane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le film Full Metal Jacket (1987) de Stanley Kubrick, le personnage du sergent-instructeur Hartman (R. Lee Ermey) cite Spillane lorsqu'il parle à la recrue qu'il a surnommé « Guignol » (Matthew Modine), disant : « Alors, on se prend pour Mickey Spillane ? »
 </t>
